--- a/test github.xlsx
+++ b/test github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C96C66-58AA-4C47-9F98-383C069E8924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E9037-DB09-4800-B8E5-1E3F5E7370AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBF9278E-0343-4AE2-B84C-FE79D1BF781B}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D02AC-72EB-4B91-966F-8DCC7BFB7EFC}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +468,14 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test github.xlsx
+++ b/test github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E9037-DB09-4800-B8E5-1E3F5E7370AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CE0DA-FE3D-46F0-8CB1-321B2CB73824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBF9278E-0343-4AE2-B84C-FE79D1BF781B}"/>
   </bookViews>
@@ -400,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D02AC-72EB-4B91-966F-8DCC7BFB7EFC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,16 +465,8 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
